--- a/modules/reports/client/excels/template/picture.xlsx
+++ b/modules/reports/client/excels/template/picture.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_report\src\ep_cms\modules\reports\client\excels\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\working_report\src\ep_cms\modules\reports\client\excels\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6898B5-AC27-48B6-B4B0-19E702391018}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="9090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
-    <sheet name="管理" sheetId="2" r:id="rId2"/>
+    <sheet name="管理No1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">管理!$A$1:$H$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">基本情報!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">管理No1!$A$1:$H$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">基本情報!$A$1:$I$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>作業終了報告書</t>
     <phoneticPr fontId="4"/>
@@ -53,11 +52,13 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>東京本社</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>〒160-0023　東京都新宿区西新宿7-20-1　住友不動産西新宿ビル22F</t>
+    <t>現場担当：　</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タントウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -108,6 +109,16 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>営業担当：</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>営業</t>
     <rPh sb="0" eb="2">
       <t>エイギョウ</t>
@@ -153,29 +164,23 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
-  <si>
-    <t>現場担当：　</t>
-  </si>
-  <si>
-    <t>営業担当：</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,7 +227,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -438,10 +443,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -505,19 +510,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -873,17 +878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A6:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="8" width="12.5" customWidth="1"/>
+    <col min="1" max="8" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="29.4" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="19" t="s">
@@ -895,12 +903,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15" thickTop="1">
       <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="18" thickBot="1">
       <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
@@ -908,12 +916,12 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18" thickBot="1">
       <c r="B15" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="32"/>
@@ -921,16 +929,16 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="18" thickBot="1">
       <c r="B17" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="34"/>
@@ -938,16 +946,16 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="18" thickBot="1">
       <c r="B19" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="35"/>
@@ -955,14 +963,14 @@
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="15" thickBot="1">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -970,7 +978,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8">
       <c r="B22" s="23" t="s">
         <v>2</v>
       </c>
@@ -979,121 +987,117 @@
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" thickBot="1">
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8">
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8">
       <c r="C36" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8">
       <c r="A37" s="8"/>
-      <c r="B37" s="21" t="s">
-        <v>4</v>
-      </c>
+      <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -1101,10 +1105,10 @@
       <c r="G37" s="22"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8">
       <c r="A38" s="8"/>
       <c r="B38" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -1113,7 +1117,7 @@
       <c r="G38" s="18"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8">
       <c r="A39" s="8"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1123,15 +1127,15 @@
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8">
       <c r="C40" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>11</v>
@@ -1152,170 +1156,168 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.875" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="11" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="14" customWidth="1"/>
     <col min="5" max="7" width="11" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="14" customWidth="1"/>
     <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="16.2">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="7.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" ht="3.75" customHeight="1"/>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>16</v>
       </c>
@@ -1327,7 +1329,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1337,122 +1339,122 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
     </row>
-    <row r="18" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+    <row r="18" spans="1:8" ht="4.5" customHeight="1"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="36" t="s">
         <v>16</v>
       </c>
@@ -1464,7 +1466,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -1474,122 +1476,122 @@
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
     </row>
-    <row r="32" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="37" t="s">
+    <row r="32" spans="1:8" ht="4.5" customHeight="1"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="36" t="s">
         <v>16</v>
       </c>
@@ -1601,7 +1603,7 @@
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -1611,122 +1613,122 @@
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
     </row>
-    <row r="46" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="37" t="s">
+    <row r="46" spans="1:8" ht="4.5" customHeight="1"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="36" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1740,7 @@
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -1748,14 +1750,26 @@
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:H45"/>
+    <mergeCell ref="A47:D57"/>
+    <mergeCell ref="E47:H57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:H59"/>
+    <mergeCell ref="A19:D29"/>
+    <mergeCell ref="E19:H29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:H31"/>
+    <mergeCell ref="A33:D43"/>
+    <mergeCell ref="E33:H43"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:H17"/>
     <mergeCell ref="B1:C1"/>
@@ -1763,26 +1777,14 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A5:D15"/>
     <mergeCell ref="E5:H15"/>
-    <mergeCell ref="A19:D29"/>
-    <mergeCell ref="E19:H29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="A33:D43"/>
-    <mergeCell ref="E33:H43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:H45"/>
-    <mergeCell ref="A47:D57"/>
-    <mergeCell ref="E47:H57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:H59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3">
       <formula1>$G$66:$G$70</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.31496062992125984" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/modules/reports/client/excels/template/picture.xlsx
+++ b/modules/reports/client/excels/template/picture.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">基本情報!$A$1:$AA$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">管理No11!$A$1:$AI$70</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -522,6 +522,9 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,9 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,13 +931,13 @@
   </sheetPr>
   <dimension ref="A6:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="25" width="3.21875" customWidth="1"/>
+    <col min="1" max="27" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:25" ht="29.4" thickBot="1">
@@ -971,48 +971,48 @@
     </row>
     <row r="7" spans="1:25" ht="15" thickTop="1"/>
     <row r="10" spans="1:25" ht="15" thickBot="1">
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1">
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="48" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:25">
       <c r="D16" s="1"/>
@@ -1036,29 +1036,29 @@
       <c r="V16" s="33"/>
     </row>
     <row r="17" spans="4:22" ht="15" thickBot="1">
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="48" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
     </row>
     <row r="18" spans="4:22">
       <c r="D18" s="1"/>
@@ -1089,25 +1089,25 @@
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
     </row>
     <row r="21" spans="4:22" ht="15" thickBot="1"/>
-    <row r="22" spans="4:22">
+    <row r="22" spans="4:22" ht="16.2" customHeight="1">
       <c r="D22" s="17"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1128,7 +1128,7 @@
       <c r="U22" s="5"/>
       <c r="V22" s="18"/>
     </row>
-    <row r="23" spans="4:22">
+    <row r="23" spans="4:22" ht="16.2" customHeight="1">
       <c r="D23" s="6"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -1149,7 +1149,7 @@
       <c r="U23" s="19"/>
       <c r="V23" s="20"/>
     </row>
-    <row r="24" spans="4:22">
+    <row r="24" spans="4:22" ht="16.2" customHeight="1">
       <c r="D24" s="6"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -1170,7 +1170,7 @@
       <c r="U24" s="19"/>
       <c r="V24" s="20"/>
     </row>
-    <row r="25" spans="4:22">
+    <row r="25" spans="4:22" ht="16.2" customHeight="1">
       <c r="D25" s="6"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -1191,7 +1191,7 @@
       <c r="U25" s="19"/>
       <c r="V25" s="20"/>
     </row>
-    <row r="26" spans="4:22">
+    <row r="26" spans="4:22" ht="16.2" customHeight="1">
       <c r="D26" s="6"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -1212,7 +1212,7 @@
       <c r="U26" s="19"/>
       <c r="V26" s="20"/>
     </row>
-    <row r="27" spans="4:22">
+    <row r="27" spans="4:22" ht="16.2" customHeight="1">
       <c r="D27" s="6"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -1233,7 +1233,7 @@
       <c r="U27" s="19"/>
       <c r="V27" s="20"/>
     </row>
-    <row r="28" spans="4:22">
+    <row r="28" spans="4:22" ht="16.2" customHeight="1">
       <c r="D28" s="6"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
@@ -1256,7 +1256,7 @@
       <c r="U28" s="19"/>
       <c r="V28" s="20"/>
     </row>
-    <row r="29" spans="4:22">
+    <row r="29" spans="4:22" ht="16.2" customHeight="1">
       <c r="D29" s="6"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -1277,7 +1277,7 @@
       <c r="U29" s="19"/>
       <c r="V29" s="20"/>
     </row>
-    <row r="30" spans="4:22">
+    <row r="30" spans="4:22" ht="16.2" customHeight="1">
       <c r="D30" s="6"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -1298,7 +1298,7 @@
       <c r="U30" s="19"/>
       <c r="V30" s="20"/>
     </row>
-    <row r="31" spans="4:22">
+    <row r="31" spans="4:22" ht="16.2" customHeight="1">
       <c r="D31" s="6"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -1319,7 +1319,7 @@
       <c r="U31" s="19"/>
       <c r="V31" s="20"/>
     </row>
-    <row r="32" spans="4:22">
+    <row r="32" spans="4:22" ht="16.2" customHeight="1">
       <c r="D32" s="6"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -1340,7 +1340,7 @@
       <c r="U32" s="19"/>
       <c r="V32" s="20"/>
     </row>
-    <row r="33" spans="4:22">
+    <row r="33" spans="4:22" ht="16.2" customHeight="1">
       <c r="D33" s="6"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -1361,7 +1361,7 @@
       <c r="U33" s="19"/>
       <c r="V33" s="20"/>
     </row>
-    <row r="34" spans="4:22" ht="15" thickBot="1">
+    <row r="34" spans="4:22" ht="16.2" customHeight="1" thickBot="1">
       <c r="D34" s="21"/>
       <c r="E34" s="22"/>
       <c r="F34" s="23"/>
@@ -1403,25 +1403,25 @@
       </c>
     </row>
     <row r="44" spans="4:22" ht="21" customHeight="1">
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
     </row>
     <row r="45" spans="4:22" ht="7.2" customHeight="1">
       <c r="D45" s="32"/>
@@ -1450,26 +1450,26 @@
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
       <c r="N46" t="s">
         <v>12</v>
       </c>
-      <c r="Q46" s="36" t="s">
+      <c r="Q46" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1508,16 +1508,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:34" ht="10.8" customHeight="1">
       <c r="A2" s="4"/>
@@ -1556,44 +1556,44 @@
       <c r="AH2" s="4"/>
     </row>
     <row r="3" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="41" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
     </row>
     <row r="4" spans="1:34" ht="10.8" customHeight="1">
       <c r="A4" s="7"/>
@@ -1711,11 +1711,11 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -1730,11 +1730,11 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="43" t="s">
+      <c r="Y7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
@@ -1751,9 +1751,9 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -1768,9 +1768,9 @@
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
@@ -1787,9 +1787,9 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -1804,9 +1804,9 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -1823,9 +1823,9 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -1840,9 +1840,9 @@
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
@@ -1859,9 +1859,9 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1876,9 +1876,9 @@
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
@@ -2068,119 +2068,119 @@
       <c r="AH16" s="15"/>
     </row>
     <row r="17" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
     </row>
     <row r="18" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-      <c r="AH18" s="42"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
     </row>
     <row r="19" spans="1:34" ht="2.4" customHeight="1"/>
     <row r="20" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="41" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
     </row>
     <row r="21" spans="1:34" ht="10.8" customHeight="1">
       <c r="A21" s="7"/>
@@ -2298,11 +2298,11 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -2317,11 +2317,11 @@
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="43" t="s">
+      <c r="Y24" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
@@ -2338,9 +2338,9 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -2355,9 +2355,9 @@
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
@@ -2374,9 +2374,9 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -2391,9 +2391,9 @@
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
@@ -2410,9 +2410,9 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -2427,9 +2427,9 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
@@ -2446,9 +2446,9 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -2463,9 +2463,9 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
@@ -2655,119 +2655,119 @@
       <c r="AH33" s="15"/>
     </row>
     <row r="34" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
     </row>
     <row r="35" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
     </row>
     <row r="36" spans="1:34" ht="4.8" customHeight="1"/>
     <row r="37" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="41" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="41"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="42"/>
     </row>
     <row r="38" spans="1:34" ht="10.8" customHeight="1">
       <c r="A38" s="7"/>
@@ -2885,11 +2885,11 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
@@ -2904,11 +2904,11 @@
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
-      <c r="Y41" s="43" t="s">
+      <c r="Y41" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
@@ -2925,9 +2925,9 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -2942,9 +2942,9 @@
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
@@ -2961,9 +2961,9 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
@@ -2978,9 +2978,9 @@
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="43"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
       <c r="AD43" s="11"/>
@@ -2997,9 +2997,9 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
@@ -3014,9 +3014,9 @@
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="43"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
@@ -3033,9 +3033,9 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
@@ -3050,9 +3050,9 @@
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
       <c r="AD45" s="11"/>
@@ -3242,119 +3242,119 @@
       <c r="AH50" s="15"/>
     </row>
     <row r="51" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
-      <c r="AA51" s="42"/>
-      <c r="AB51" s="42"/>
-      <c r="AC51" s="42"/>
-      <c r="AD51" s="42"/>
-      <c r="AE51" s="42"/>
-      <c r="AF51" s="42"/>
-      <c r="AG51" s="42"/>
-      <c r="AH51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="43"/>
+      <c r="AH51" s="43"/>
     </row>
     <row r="52" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="42"/>
-      <c r="AB52" s="42"/>
-      <c r="AC52" s="42"/>
-      <c r="AD52" s="42"/>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="42"/>
-      <c r="AH52" s="42"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="43"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="43"/>
+      <c r="AF52" s="43"/>
+      <c r="AG52" s="43"/>
+      <c r="AH52" s="43"/>
     </row>
     <row r="53" spans="1:34" ht="4.2" customHeight="1"/>
     <row r="54" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="41" t="s">
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="41"/>
-      <c r="AE54" s="41"/>
-      <c r="AF54" s="41"/>
-      <c r="AG54" s="41"/>
-      <c r="AH54" s="41"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="42"/>
     </row>
     <row r="55" spans="1:34" ht="10.8" customHeight="1">
       <c r="A55" s="7"/>
@@ -3472,11 +3472,11 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="43" t="s">
+      <c r="H58" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
@@ -3491,11 +3491,11 @@
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
-      <c r="Y58" s="43" t="s">
+      <c r="Y58" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="43"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
       <c r="AB58" s="11"/>
       <c r="AC58" s="11"/>
       <c r="AD58" s="11"/>
@@ -3512,9 +3512,9 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
@@ -3529,9 +3529,9 @@
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
-      <c r="AA59" s="43"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="44"/>
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
@@ -3548,9 +3548,9 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
@@ -3565,9 +3565,9 @@
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
-      <c r="Y60" s="43"/>
-      <c r="Z60" s="43"/>
-      <c r="AA60" s="43"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="44"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
       <c r="AD60" s="11"/>
@@ -3584,9 +3584,9 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
@@ -3601,9 +3601,9 @@
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
-      <c r="Y61" s="43"/>
-      <c r="Z61" s="43"/>
-      <c r="AA61" s="43"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="44"/>
       <c r="AB61" s="11"/>
       <c r="AC61" s="11"/>
       <c r="AD61" s="11"/>
@@ -3620,9 +3620,9 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
@@ -3637,9 +3637,9 @@
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
-      <c r="Y62" s="43"/>
-      <c r="Z62" s="43"/>
-      <c r="AA62" s="43"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="44"/>
       <c r="AB62" s="11"/>
       <c r="AC62" s="11"/>
       <c r="AD62" s="11"/>
@@ -3829,78 +3829,78 @@
       <c r="AH67" s="15"/>
     </row>
     <row r="68" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="42"/>
-      <c r="Y68" s="42"/>
-      <c r="Z68" s="42"/>
-      <c r="AA68" s="42"/>
-      <c r="AB68" s="42"/>
-      <c r="AC68" s="42"/>
-      <c r="AD68" s="42"/>
-      <c r="AE68" s="42"/>
-      <c r="AF68" s="42"/>
-      <c r="AG68" s="42"/>
-      <c r="AH68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="43"/>
+      <c r="AB68" s="43"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="43"/>
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
     </row>
     <row r="69" spans="1:34" ht="10.8" customHeight="1">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42"/>
-      <c r="W69" s="42"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="42"/>
-      <c r="AA69" s="42"/>
-      <c r="AB69" s="42"/>
-      <c r="AC69" s="42"/>
-      <c r="AD69" s="42"/>
-      <c r="AE69" s="42"/>
-      <c r="AF69" s="42"/>
-      <c r="AG69" s="42"/>
-      <c r="AH69" s="42"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="43"/>
+      <c r="AC69" s="43"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="43"/>
+      <c r="AH69" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="26">
